--- a/04数据分析/data/600001SH.xlsx
+++ b/04数据分析/data/600001SH.xlsx
@@ -19,40 +19,40 @@
     <t>代码</t>
   </si>
   <si>
-    <t xml:space="preserve"> 简称</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 前收盘价(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 开盘价(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最高价(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 最低价(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 收盘价(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 成交量(股)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 成交金额(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 涨跌(元)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 涨跌幅(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 均价(元)</t>
+    <t>简称</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>前收盘价(元)</t>
+  </si>
+  <si>
+    <t>开盘价(元)</t>
+  </si>
+  <si>
+    <t>最高价(元)</t>
+  </si>
+  <si>
+    <t>最低价(元)</t>
+  </si>
+  <si>
+    <t>收盘价(元)</t>
+  </si>
+  <si>
+    <t>成交量(股)</t>
+  </si>
+  <si>
+    <t>成交金额(元)</t>
+  </si>
+  <si>
+    <t>涨跌(元)</t>
+  </si>
+  <si>
+    <t>涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>均价(元)</t>
   </si>
   <si>
     <t>600004.SH</t>
@@ -369,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -383,8 +383,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -393,22 +414,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,14 +428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,23 +442,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -474,17 +456,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,14 +496,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -536,7 +536,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,61 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,25 +656,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,25 +692,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,37 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,6 +739,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -750,6 +761,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,44 +797,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,6 +818,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -835,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,133 +847,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>

--- a/04数据分析/data/600001SH.xlsx
+++ b/04数据分析/data/600001SH.xlsx
@@ -368,11 +368,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -383,24 +384,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,9 +414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,11 +428,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,19 +450,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,17 +475,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,8 +497,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,7 +537,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,13 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +597,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,85 +657,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,19 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,19 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +752,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -765,17 +790,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,15 +814,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -818,15 +828,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -835,10 +836,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,139 +848,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1303,49 +1313,53 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11.7256637168142" style="2"/>
+    <col min="10" max="10" width="10.5309734513274"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1356,7 +1370,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>42008</v>
       </c>
       <c r="D2">
@@ -1397,7 +1411,7 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>42009</v>
       </c>
       <c r="D3">
@@ -1438,7 +1452,7 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>42010</v>
       </c>
       <c r="D4">
@@ -1479,7 +1493,7 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5">
@@ -1520,7 +1534,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>42012</v>
       </c>
       <c r="D6">
@@ -1561,7 +1575,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7">
@@ -1602,7 +1616,7 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8">
@@ -1643,7 +1657,7 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9">
@@ -1684,7 +1698,7 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10">
@@ -1725,7 +1739,7 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11">
@@ -1766,7 +1780,7 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12">
@@ -1807,7 +1821,7 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13">
@@ -1848,7 +1862,7 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D14">
@@ -1889,7 +1903,7 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15">
@@ -1930,7 +1944,7 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16">
@@ -1971,7 +1985,7 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17">
@@ -2012,7 +2026,7 @@
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18">
@@ -2053,7 +2067,7 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D19">
@@ -2094,7 +2108,7 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20">
@@ -2135,7 +2149,7 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D21">
@@ -2176,7 +2190,7 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D22">
@@ -2217,7 +2231,7 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D23">
@@ -2258,7 +2272,7 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D24">
@@ -2299,7 +2313,7 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D25">
@@ -2340,7 +2354,7 @@
       <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D26">
@@ -2381,7 +2395,7 @@
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D27">
@@ -2422,7 +2436,7 @@
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D28">
@@ -2463,7 +2477,7 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D29">
@@ -2504,7 +2518,7 @@
       <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D30">
@@ -2545,7 +2559,7 @@
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D31">
@@ -2586,7 +2600,7 @@
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D32">
@@ -2627,7 +2641,7 @@
       <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D33">
@@ -2668,7 +2682,7 @@
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D34">
@@ -2709,7 +2723,7 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D35">
@@ -2750,7 +2764,7 @@
       <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D36">
@@ -2791,7 +2805,7 @@
       <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D37">
@@ -2832,7 +2846,7 @@
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D38">
@@ -2873,7 +2887,7 @@
       <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D39">
@@ -2914,7 +2928,7 @@
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D40">
@@ -2955,7 +2969,7 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D41">
@@ -2996,7 +3010,7 @@
       <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D42">
@@ -3037,7 +3051,7 @@
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D43">
@@ -3078,7 +3092,7 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D44">
@@ -3119,7 +3133,7 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D45">
@@ -3160,7 +3174,7 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D46">
@@ -3201,7 +3215,7 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D47">
@@ -3242,7 +3256,7 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D48">
@@ -3283,7 +3297,7 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D49">
@@ -3324,7 +3338,7 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D50">
@@ -3365,7 +3379,7 @@
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D51">
@@ -3406,7 +3420,7 @@
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D52">
@@ -3447,7 +3461,7 @@
       <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D53">
@@ -3488,7 +3502,7 @@
       <c r="B54" t="s">
         <v>14</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D54">
@@ -3529,7 +3543,7 @@
       <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D55">
@@ -3570,7 +3584,7 @@
       <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D56">
@@ -3611,7 +3625,7 @@
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D57">
@@ -3652,7 +3666,7 @@
       <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D58">
@@ -3693,7 +3707,7 @@
       <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D59">
@@ -3734,7 +3748,7 @@
       <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D60">
@@ -3775,7 +3789,7 @@
       <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D61">
@@ -3816,7 +3830,7 @@
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D62">
@@ -3857,7 +3871,7 @@
       <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D63">
@@ -3898,7 +3912,7 @@
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D64">
@@ -3939,7 +3953,7 @@
       <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D65">
@@ -3980,7 +3994,7 @@
       <c r="B66" t="s">
         <v>14</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D66">
@@ -4021,7 +4035,7 @@
       <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D67">
@@ -4062,7 +4076,7 @@
       <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D68">
@@ -4103,7 +4117,7 @@
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D69">
@@ -4144,7 +4158,7 @@
       <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D70">
@@ -4185,7 +4199,7 @@
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D71">
@@ -4226,7 +4240,7 @@
       <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D72">
@@ -4267,7 +4281,7 @@
       <c r="B73" t="s">
         <v>14</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D73">
@@ -4308,7 +4322,7 @@
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D74">
@@ -4349,7 +4363,7 @@
       <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D75">
@@ -4390,7 +4404,7 @@
       <c r="B76" t="s">
         <v>14</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D76">
@@ -4431,7 +4445,7 @@
       <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D77">
@@ -4472,7 +4486,7 @@
       <c r="B78" t="s">
         <v>14</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D78">
@@ -4513,7 +4527,7 @@
       <c r="B79" t="s">
         <v>14</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D79">
@@ -4554,7 +4568,7 @@
       <c r="B80" t="s">
         <v>14</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D80">
@@ -4595,7 +4609,7 @@
       <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D81">
@@ -4636,7 +4650,7 @@
       <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D82">
@@ -4677,7 +4691,7 @@
       <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D83">
@@ -4718,7 +4732,7 @@
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D84">
@@ -4759,7 +4773,7 @@
       <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D85">
@@ -4800,7 +4814,7 @@
       <c r="B86" t="s">
         <v>14</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D86">
@@ -4841,7 +4855,7 @@
       <c r="B87" t="s">
         <v>14</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D87">
@@ -4882,7 +4896,7 @@
       <c r="B88" t="s">
         <v>14</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D88">
@@ -4923,7 +4937,7 @@
       <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D89">
@@ -4964,7 +4978,7 @@
       <c r="B90" t="s">
         <v>14</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D90">
@@ -5005,7 +5019,7 @@
       <c r="B91" t="s">
         <v>14</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D91">
@@ -5046,7 +5060,7 @@
       <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D92">
@@ -5087,7 +5101,7 @@
       <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D93">
@@ -5128,7 +5142,7 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D94">
@@ -5169,7 +5183,7 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D95">
@@ -5210,7 +5224,7 @@
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D96">
@@ -5251,7 +5265,7 @@
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D97">
@@ -5292,7 +5306,7 @@
       <c r="B98" t="s">
         <v>14</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D98">
@@ -5333,7 +5347,7 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D99">
@@ -5374,7 +5388,7 @@
       <c r="B100" t="s">
         <v>14</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D100">
@@ -5415,7 +5429,7 @@
       <c r="B101" t="s">
         <v>14</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D101">
@@ -5456,7 +5470,7 @@
       <c r="B102" t="s">
         <v>14</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D102">
@@ -5497,7 +5511,7 @@
       <c r="B103" t="s">
         <v>14</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D103">
@@ -5538,7 +5552,7 @@
       <c r="B104" t="s">
         <v>14</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D104">
@@ -5579,7 +5593,7 @@
       <c r="B105" t="s">
         <v>14</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D105">
@@ -5620,7 +5634,7 @@
       <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D106">

--- a/04数据分析/data/600001SH.xlsx
+++ b/04数据分析/data/600001SH.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="600001SH" sheetId="1" r:id="rId1"/>
+    <sheet name="asdf" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="120">
   <si>
     <t>代码</t>
   </si>
@@ -61,7 +61,19 @@
     <t xml:space="preserve"> 白云机场</t>
   </si>
   <si>
+    <t xml:space="preserve"> 2015/01/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/01/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/01/06</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2015/01/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015/01/08</t>
   </si>
   <si>
     <t xml:space="preserve"> 2015/01/11</t>
@@ -368,14 +380,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,9 +395,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,57 +483,29 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,58 +517,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,7 +528,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -537,7 +541,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,79 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,49 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,26 +732,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,7 +754,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,9 +776,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +796,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,148 +852,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,6 +1042,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1313,53 +1316,53 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.7256637168142" style="2"/>
+    <col min="3" max="3" width="17.6637168141593" customWidth="1"/>
     <col min="10" max="10" width="10.5309734513274"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1370,8 +1373,8 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>42008</v>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
         <v>14.23</v>
@@ -1411,8 +1414,8 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
-        <v>42009</v>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
         <v>13.04</v>
@@ -1452,8 +1455,8 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
-        <v>42010</v>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4">
         <v>13.14</v>
@@ -1493,8 +1496,8 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
         <v>13.43</v>
@@ -1534,8 +1537,8 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
-        <v>42012</v>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6">
         <v>12.42</v>
@@ -1575,8 +1578,8 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="D7">
         <v>12.7</v>
@@ -1616,8 +1619,8 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8">
         <v>12.1</v>
@@ -1657,8 +1660,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="D9">
         <v>12.16</v>
@@ -1698,8 +1701,8 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="D10">
         <v>11.89</v>
@@ -1739,8 +1742,8 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="D11">
         <v>12.07</v>
@@ -1780,8 +1783,8 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12">
         <v>11.67</v>
@@ -1821,8 +1824,8 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1862,8 +1865,8 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
       <c r="D14">
         <v>12.52</v>
@@ -1903,8 +1906,8 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
+      <c r="C15" t="s">
+        <v>28</v>
       </c>
       <c r="D15">
         <v>12.45</v>
@@ -1944,8 +1947,8 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
+      <c r="C16" t="s">
+        <v>29</v>
       </c>
       <c r="D16">
         <v>12.2</v>
@@ -1985,8 +1988,8 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17">
         <v>12.36</v>
@@ -2026,8 +2029,8 @@
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
+      <c r="C18" t="s">
+        <v>31</v>
       </c>
       <c r="D18">
         <v>12.46</v>
@@ -2067,8 +2070,8 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
       <c r="D19">
         <v>11.87</v>
@@ -2108,8 +2111,8 @@
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="D20">
         <v>11.92</v>
@@ -2149,8 +2152,8 @@
       <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
       <c r="D21">
         <v>11.8</v>
@@ -2190,8 +2193,8 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
+      <c r="C22" t="s">
+        <v>35</v>
       </c>
       <c r="D22">
         <v>12.21</v>
@@ -2231,8 +2234,8 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
+      <c r="C23" t="s">
+        <v>36</v>
       </c>
       <c r="D23">
         <v>11.95</v>
@@ -2272,8 +2275,8 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
+      <c r="C24" t="s">
+        <v>37</v>
       </c>
       <c r="D24">
         <v>12.2</v>
@@ -2313,8 +2316,8 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
+      <c r="C25" t="s">
+        <v>38</v>
       </c>
       <c r="D25">
         <v>12.36</v>
@@ -2354,8 +2357,8 @@
       <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>35</v>
+      <c r="C26" t="s">
+        <v>39</v>
       </c>
       <c r="D26">
         <v>12.54</v>
@@ -2395,8 +2398,8 @@
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
+      <c r="C27" t="s">
+        <v>40</v>
       </c>
       <c r="D27">
         <v>12.35</v>
@@ -2436,8 +2439,8 @@
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
+      <c r="C28" t="s">
+        <v>41</v>
       </c>
       <c r="D28">
         <v>12.34</v>
@@ -2477,8 +2480,8 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>38</v>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
       <c r="D29">
         <v>12.69</v>
@@ -2518,8 +2521,8 @@
       <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>39</v>
+      <c r="C30" t="s">
+        <v>43</v>
       </c>
       <c r="D30">
         <v>12.83</v>
@@ -2559,8 +2562,8 @@
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>40</v>
+      <c r="C31" t="s">
+        <v>44</v>
       </c>
       <c r="D31">
         <v>12.8</v>
@@ -2600,8 +2603,8 @@
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>41</v>
+      <c r="C32" t="s">
+        <v>45</v>
       </c>
       <c r="D32">
         <v>12.72</v>
@@ -2641,8 +2644,8 @@
       <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>42</v>
+      <c r="C33" t="s">
+        <v>46</v>
       </c>
       <c r="D33">
         <v>12.98</v>
@@ -2682,8 +2685,8 @@
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>43</v>
+      <c r="C34" t="s">
+        <v>47</v>
       </c>
       <c r="D34">
         <v>12.99</v>
@@ -2723,8 +2726,8 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
+      <c r="C35" t="s">
+        <v>48</v>
       </c>
       <c r="D35">
         <v>13.54</v>
@@ -2764,8 +2767,8 @@
       <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
+      <c r="C36" t="s">
+        <v>49</v>
       </c>
       <c r="D36">
         <v>13.05</v>
@@ -2805,8 +2808,8 @@
       <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
+      <c r="C37" t="s">
+        <v>50</v>
       </c>
       <c r="D37">
         <v>11.28</v>
@@ -2846,8 +2849,8 @@
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>47</v>
+      <c r="C38" t="s">
+        <v>51</v>
       </c>
       <c r="D38">
         <v>11.43</v>
@@ -2887,8 +2890,8 @@
       <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
+      <c r="C39" t="s">
+        <v>52</v>
       </c>
       <c r="D39">
         <v>11.88</v>
@@ -2928,8 +2931,8 @@
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>49</v>
+      <c r="C40" t="s">
+        <v>53</v>
       </c>
       <c r="D40">
         <v>11.84</v>
@@ -2969,8 +2972,8 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>50</v>
+      <c r="C41" t="s">
+        <v>54</v>
       </c>
       <c r="D41">
         <v>11.73</v>
@@ -3010,8 +3013,8 @@
       <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>51</v>
+      <c r="C42" t="s">
+        <v>55</v>
       </c>
       <c r="D42">
         <v>11.84</v>
@@ -3051,8 +3054,8 @@
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>52</v>
+      <c r="C43" t="s">
+        <v>56</v>
       </c>
       <c r="D43">
         <v>11.85</v>
@@ -3092,8 +3095,8 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>53</v>
+      <c r="C44" t="s">
+        <v>57</v>
       </c>
       <c r="D44">
         <v>11.72</v>
@@ -3133,8 +3136,8 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>54</v>
+      <c r="C45" t="s">
+        <v>58</v>
       </c>
       <c r="D45">
         <v>11.59</v>
@@ -3174,8 +3177,8 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>55</v>
+      <c r="C46" t="s">
+        <v>59</v>
       </c>
       <c r="D46">
         <v>11.6</v>
@@ -3215,8 +3218,8 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>56</v>
+      <c r="C47" t="s">
+        <v>60</v>
       </c>
       <c r="D47">
         <v>11.83</v>
@@ -3256,8 +3259,8 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>57</v>
+      <c r="C48" t="s">
+        <v>61</v>
       </c>
       <c r="D48">
         <v>12.02</v>
@@ -3297,8 +3300,8 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>58</v>
+      <c r="C49" t="s">
+        <v>62</v>
       </c>
       <c r="D49">
         <v>11.93</v>
@@ -3338,8 +3341,8 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>59</v>
+      <c r="C50" t="s">
+        <v>63</v>
       </c>
       <c r="D50">
         <v>12.11</v>
@@ -3379,8 +3382,8 @@
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>60</v>
+      <c r="C51" t="s">
+        <v>64</v>
       </c>
       <c r="D51">
         <v>12.34</v>
@@ -3420,8 +3423,8 @@
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>61</v>
+      <c r="C52" t="s">
+        <v>65</v>
       </c>
       <c r="D52">
         <v>12.5</v>
@@ -3461,8 +3464,8 @@
       <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>62</v>
+      <c r="C53" t="s">
+        <v>66</v>
       </c>
       <c r="D53">
         <v>12.4</v>
@@ -3502,8 +3505,8 @@
       <c r="B54" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>63</v>
+      <c r="C54" t="s">
+        <v>67</v>
       </c>
       <c r="D54">
         <v>12.25</v>
@@ -3543,8 +3546,8 @@
       <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>64</v>
+      <c r="C55" t="s">
+        <v>68</v>
       </c>
       <c r="D55">
         <v>12.1</v>
@@ -3584,8 +3587,8 @@
       <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>65</v>
+      <c r="C56" t="s">
+        <v>69</v>
       </c>
       <c r="D56">
         <v>12.2</v>
@@ -3625,8 +3628,8 @@
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>66</v>
+      <c r="C57" t="s">
+        <v>70</v>
       </c>
       <c r="D57">
         <v>12.21</v>
@@ -3666,8 +3669,8 @@
       <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>67</v>
+      <c r="C58" t="s">
+        <v>71</v>
       </c>
       <c r="D58">
         <v>12.09</v>
@@ -3707,8 +3710,8 @@
       <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>68</v>
+      <c r="C59" t="s">
+        <v>72</v>
       </c>
       <c r="D59">
         <v>12.52</v>
@@ -3748,8 +3751,8 @@
       <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>69</v>
+      <c r="C60" t="s">
+        <v>73</v>
       </c>
       <c r="D60">
         <v>12.4</v>
@@ -3789,8 +3792,8 @@
       <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>70</v>
+      <c r="C61" t="s">
+        <v>74</v>
       </c>
       <c r="D61">
         <v>12.32</v>
@@ -3830,8 +3833,8 @@
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>71</v>
+      <c r="C62" t="s">
+        <v>75</v>
       </c>
       <c r="D62">
         <v>12.58</v>
@@ -3871,8 +3874,8 @@
       <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>72</v>
+      <c r="C63" t="s">
+        <v>76</v>
       </c>
       <c r="D63">
         <v>12.65</v>
@@ -3912,8 +3915,8 @@
       <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>73</v>
+      <c r="C64" t="s">
+        <v>77</v>
       </c>
       <c r="D64">
         <v>12.49</v>
@@ -3953,8 +3956,8 @@
       <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>74</v>
+      <c r="C65" t="s">
+        <v>78</v>
       </c>
       <c r="D65">
         <v>12.36</v>
@@ -3994,8 +3997,8 @@
       <c r="B66" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>75</v>
+      <c r="C66" t="s">
+        <v>79</v>
       </c>
       <c r="D66">
         <v>12.58</v>
@@ -4035,8 +4038,8 @@
       <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>76</v>
+      <c r="C67" t="s">
+        <v>80</v>
       </c>
       <c r="D67">
         <v>12.51</v>
@@ -4076,8 +4079,8 @@
       <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>77</v>
+      <c r="C68" t="s">
+        <v>81</v>
       </c>
       <c r="D68">
         <v>12.69</v>
@@ -4117,8 +4120,8 @@
       <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>78</v>
+      <c r="C69" t="s">
+        <v>82</v>
       </c>
       <c r="D69">
         <v>12.75</v>
@@ -4158,8 +4161,8 @@
       <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>79</v>
+      <c r="C70" t="s">
+        <v>83</v>
       </c>
       <c r="D70">
         <v>12.75</v>
@@ -4199,8 +4202,8 @@
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>80</v>
+      <c r="C71" t="s">
+        <v>84</v>
       </c>
       <c r="D71">
         <v>12.49</v>
@@ -4240,8 +4243,8 @@
       <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>81</v>
+      <c r="C72" t="s">
+        <v>85</v>
       </c>
       <c r="D72">
         <v>12.4</v>
@@ -4281,8 +4284,8 @@
       <c r="B73" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>82</v>
+      <c r="C73" t="s">
+        <v>86</v>
       </c>
       <c r="D73">
         <v>12.15</v>
@@ -4322,8 +4325,8 @@
       <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>83</v>
+      <c r="C74" t="s">
+        <v>87</v>
       </c>
       <c r="D74">
         <v>12.12</v>
@@ -4363,8 +4366,8 @@
       <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>84</v>
+      <c r="C75" t="s">
+        <v>88</v>
       </c>
       <c r="D75">
         <v>12.12</v>
@@ -4404,8 +4407,8 @@
       <c r="B76" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>85</v>
+      <c r="C76" t="s">
+        <v>89</v>
       </c>
       <c r="D76">
         <v>12.15</v>
@@ -4445,8 +4448,8 @@
       <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>86</v>
+      <c r="C77" t="s">
+        <v>90</v>
       </c>
       <c r="D77">
         <v>12.2</v>
@@ -4486,8 +4489,8 @@
       <c r="B78" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>87</v>
+      <c r="C78" t="s">
+        <v>91</v>
       </c>
       <c r="D78">
         <v>12.14</v>
@@ -4527,8 +4530,8 @@
       <c r="B79" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>88</v>
+      <c r="C79" t="s">
+        <v>92</v>
       </c>
       <c r="D79">
         <v>12.09</v>
@@ -4568,8 +4571,8 @@
       <c r="B80" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>89</v>
+      <c r="C80" t="s">
+        <v>93</v>
       </c>
       <c r="D80">
         <v>12.02</v>
@@ -4609,8 +4612,8 @@
       <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>90</v>
+      <c r="C81" t="s">
+        <v>94</v>
       </c>
       <c r="D81">
         <v>12.3</v>
@@ -4650,8 +4653,8 @@
       <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>91</v>
+      <c r="C82" t="s">
+        <v>95</v>
       </c>
       <c r="D82">
         <v>12.38</v>
@@ -4691,8 +4694,8 @@
       <c r="B83" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>92</v>
+      <c r="C83" t="s">
+        <v>96</v>
       </c>
       <c r="D83">
         <v>12.42</v>
@@ -4732,8 +4735,8 @@
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>93</v>
+      <c r="C84" t="s">
+        <v>97</v>
       </c>
       <c r="D84">
         <v>12.27</v>
@@ -4773,8 +4776,8 @@
       <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>94</v>
+      <c r="C85" t="s">
+        <v>98</v>
       </c>
       <c r="D85">
         <v>11.9</v>
@@ -4814,8 +4817,8 @@
       <c r="B86" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>95</v>
+      <c r="C86" t="s">
+        <v>99</v>
       </c>
       <c r="D86">
         <v>11.94</v>
@@ -4855,8 +4858,8 @@
       <c r="B87" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>96</v>
+      <c r="C87" t="s">
+        <v>100</v>
       </c>
       <c r="D87">
         <v>12.34</v>
@@ -4896,8 +4899,8 @@
       <c r="B88" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>97</v>
+      <c r="C88" t="s">
+        <v>101</v>
       </c>
       <c r="D88">
         <v>12.28</v>
@@ -4937,8 +4940,8 @@
       <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>98</v>
+      <c r="C89" t="s">
+        <v>102</v>
       </c>
       <c r="D89">
         <v>12.19</v>
@@ -4978,8 +4981,8 @@
       <c r="B90" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>99</v>
+      <c r="C90" t="s">
+        <v>103</v>
       </c>
       <c r="D90">
         <v>12.3</v>
@@ -5019,8 +5022,8 @@
       <c r="B91" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>100</v>
+      <c r="C91" t="s">
+        <v>104</v>
       </c>
       <c r="D91">
         <v>12.26</v>
@@ -5060,8 +5063,8 @@
       <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>101</v>
+      <c r="C92" t="s">
+        <v>105</v>
       </c>
       <c r="D92">
         <v>12.02</v>
@@ -5101,8 +5104,8 @@
       <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>102</v>
+      <c r="C93" t="s">
+        <v>106</v>
       </c>
       <c r="D93">
         <v>11.99</v>
@@ -5142,8 +5145,8 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>103</v>
+      <c r="C94" t="s">
+        <v>107</v>
       </c>
       <c r="D94">
         <v>12.03</v>
@@ -5183,8 +5186,8 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>104</v>
+      <c r="C95" t="s">
+        <v>108</v>
       </c>
       <c r="D95">
         <v>12.16</v>
@@ -5224,8 +5227,8 @@
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>105</v>
+      <c r="C96" t="s">
+        <v>109</v>
       </c>
       <c r="D96">
         <v>12.08</v>
@@ -5265,8 +5268,8 @@
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>106</v>
+      <c r="C97" t="s">
+        <v>110</v>
       </c>
       <c r="D97">
         <v>12.04</v>
@@ -5306,8 +5309,8 @@
       <c r="B98" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>107</v>
+      <c r="C98" t="s">
+        <v>111</v>
       </c>
       <c r="D98">
         <v>12</v>
@@ -5347,8 +5350,8 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>108</v>
+      <c r="C99" t="s">
+        <v>112</v>
       </c>
       <c r="D99">
         <v>11.96</v>
@@ -5388,8 +5391,8 @@
       <c r="B100" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>109</v>
+      <c r="C100" t="s">
+        <v>113</v>
       </c>
       <c r="D100">
         <v>11.9</v>
@@ -5429,8 +5432,8 @@
       <c r="B101" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>110</v>
+      <c r="C101" t="s">
+        <v>114</v>
       </c>
       <c r="D101">
         <v>12.24</v>
@@ -5470,8 +5473,8 @@
       <c r="B102" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>111</v>
+      <c r="C102" t="s">
+        <v>115</v>
       </c>
       <c r="D102">
         <v>12.19</v>
@@ -5511,8 +5514,8 @@
       <c r="B103" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>112</v>
+      <c r="C103" t="s">
+        <v>116</v>
       </c>
       <c r="D103">
         <v>12.19</v>
@@ -5552,8 +5555,8 @@
       <c r="B104" t="s">
         <v>14</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>113</v>
+      <c r="C104" t="s">
+        <v>117</v>
       </c>
       <c r="D104">
         <v>12.28</v>
@@ -5593,8 +5596,8 @@
       <c r="B105" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>114</v>
+      <c r="C105" t="s">
+        <v>118</v>
       </c>
       <c r="D105">
         <v>12.32</v>
@@ -5634,8 +5637,8 @@
       <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>115</v>
+      <c r="C106" t="s">
+        <v>119</v>
       </c>
       <c r="D106">
         <v>12.26</v>
